--- a/dataset/region/sexo_edad_arica.xlsx
+++ b/dataset/region/sexo_edad_arica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16FE5391-5DB3-4B93-B01E-8B65C7098BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DD4E6-7B6C-433A-A60F-80A4CEE419D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reportesEstadisticos-sexoEdad" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,22 +638,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1010,3148 +1010,3148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="46.21875" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
     <col min="7" max="12" width="32" customWidth="1"/>
-    <col min="13" max="18" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>2005</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <v>2006</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <v>2007</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <v>2008</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <v>2009</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>2010</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>2011</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>2012</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>2013</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>2014</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>2015</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>2016</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>2017</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="3">
         <v>2018</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="3">
         <v>2019</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="3">
         <v>2020</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="3">
         <v>2021</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <v>45</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>89</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>68</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <v>110</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="5">
         <v>146</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="5">
         <v>156</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="5">
         <v>171</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="5">
         <v>180</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="5">
         <v>130</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="5">
         <v>118</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="5">
         <v>96</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="5">
         <v>98</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="5">
         <v>101</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="5">
         <v>118</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="5">
         <v>114</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="5">
         <v>68</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="5">
         <v>93</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="5">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>100</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>146</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>138</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <v>167</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="5">
         <v>286</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="5">
         <v>286</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="5">
         <v>251</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="5">
         <v>264</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="5">
         <v>268</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="5">
         <v>227</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="5">
         <v>228</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="5">
         <v>223</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="5">
         <v>181</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="5">
         <v>183</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="5">
         <v>206</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="5">
         <v>147</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="5">
         <v>94</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="5">
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>891</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>1039</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <v>1073</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <v>1499</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="5">
         <v>1784</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="5">
         <v>1872</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="5">
         <v>2063</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="5">
         <v>2073</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="5">
         <v>2021</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="5">
         <v>1854</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="5">
         <v>1599</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="5">
         <v>1525</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="5">
         <v>1529</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="5">
         <v>1429</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="5">
         <v>1641</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="5">
         <v>1403</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="5">
         <v>1600</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="5">
         <v>1870</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>1265</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>1437</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>1480</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>1963</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>2286</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="5">
         <v>2271</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="5">
         <v>2463</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="5">
         <v>2379</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="5">
         <v>2141</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="5">
         <v>1972</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="5">
         <v>1829</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="5">
         <v>1919</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="5">
         <v>1747</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="5">
         <v>1856</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="5">
         <v>1990</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="5">
         <v>1807</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="5">
         <v>2088</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="5">
         <v>2653</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>635</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>770</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>909</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>1100</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <v>1414</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="5">
         <v>1387</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="5">
         <v>1458</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="5">
         <v>1389</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="5">
         <v>1307</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="5">
         <v>1214</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="5">
         <v>1091</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="5">
         <v>1120</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="5">
         <v>1076</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="5">
         <v>1116</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="5">
         <v>1331</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="5">
         <v>1220</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="5">
         <v>1390</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="5">
         <v>1784</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>121</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>142</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>177</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <v>213</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
         <v>224</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <v>267</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="5">
         <v>292</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="5">
         <v>252</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="5">
         <v>259</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="5">
         <v>256</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="5">
         <v>196</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="5">
         <v>215</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="5">
         <v>222</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="5">
         <v>239</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="5">
         <v>268</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="5">
         <v>307</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="5">
         <v>385</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="5">
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="5">
         <v>3</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="5">
         <v>4</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="5">
         <v>3</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="5">
         <v>1</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="5">
         <v>1</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="5">
         <v>1</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="5">
         <v>2</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="5">
         <v>1</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="5">
         <v>0</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="5">
         <v>4</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="5">
         <v>1</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="5">
         <v>2</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>3058</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>3623</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>3845</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
         <v>5053</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="5">
         <v>6142</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="5">
         <v>6242</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="5">
         <v>6702</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="5">
         <v>6540</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="5">
         <v>6127</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="5">
         <v>5642</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="5">
         <v>5040</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="5">
         <v>5102</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="5">
         <v>4857</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="5">
         <v>4941</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="5">
         <v>5554</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="5">
         <v>4953</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="5">
         <v>5652</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="5">
         <v>7064</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>96</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>104</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <v>87</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <v>117</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="5">
         <v>163</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="5">
         <v>178</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="5">
         <v>186</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="5">
         <v>157</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="5">
         <v>115</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="5">
         <v>88</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="5">
         <v>79</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="5">
         <v>105</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="5">
         <v>80</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="5">
         <v>96</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="5">
         <v>89</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="5">
         <v>50</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="5">
         <v>59</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="5">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>109</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>133</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <v>149</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>163</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <v>207</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="5">
         <v>191</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="5">
         <v>218</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="5">
         <v>170</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="5">
         <v>163</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="5">
         <v>170</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="5">
         <v>162</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="5">
         <v>177</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="5">
         <v>154</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="5">
         <v>127</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="5">
         <v>144</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="5">
         <v>86</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="5">
         <v>70</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="5">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <v>739</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>963</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <v>986</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="5">
         <v>1228</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="5">
         <v>1673</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="5">
         <v>1922</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="5">
         <v>2769</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="5">
         <v>2838</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="5">
         <v>2959</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="5">
         <v>2407</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="5">
         <v>2109</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="5">
         <v>1855</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="5">
         <v>1728</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="5">
         <v>1805</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="5">
         <v>1934</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="5">
         <v>1203</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="5">
         <v>1286</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="5">
         <v>1751</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <v>1179</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="5">
         <v>1291</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="5">
         <v>1189</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="5">
         <v>1514</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="5">
         <v>1913</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="5">
         <v>2166</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="5">
         <v>2781</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="5">
         <v>2703</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="5">
         <v>2666</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="5">
         <v>2360</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="5">
         <v>2338</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="5">
         <v>2122</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="5">
         <v>2002</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="5">
         <v>2112</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="5">
         <v>2179</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="5">
         <v>1691</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="5">
         <v>1919</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="5">
         <v>2803</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <v>870</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="5">
         <v>985</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="5">
         <v>1006</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="5">
         <v>1245</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="5">
         <v>1563</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="5">
         <v>1742</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="5">
         <v>2111</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="5">
         <v>2069</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="5">
         <v>2096</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="5">
         <v>1782</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="5">
         <v>1475</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="5">
         <v>1609</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="5">
         <v>1542</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="5">
         <v>1638</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="5">
         <v>1653</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="5">
         <v>1342</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="5">
         <v>1494</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="5">
         <v>2186</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <v>177</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="5">
         <v>198</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="5">
         <v>184</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="5">
         <v>264</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="5">
         <v>331</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="5">
         <v>351</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="5">
         <v>348</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="5">
         <v>329</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="5">
         <v>409</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="5">
         <v>301</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="5">
         <v>284</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="5">
         <v>332</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="5">
         <v>349</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="5">
         <v>413</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="5">
         <v>410</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="5">
         <v>357</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="5">
         <v>444</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="5">
         <v>661</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="5">
         <v>2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="5">
         <v>2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="5">
         <v>3</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="5">
         <v>3</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="5">
         <v>6</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="5">
         <v>0</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="5">
         <v>4</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="5">
         <v>1</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="5">
         <v>1</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="5">
         <v>3</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="5">
         <v>3</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="5">
         <v>3</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="5">
         <v>1</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="5">
         <v>3</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>3170</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="5">
         <v>3674</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="5">
         <v>3603</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="5">
         <v>4533</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="5">
         <v>5850</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="5">
         <v>6553</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="5">
         <v>8416</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="5">
         <v>8272</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="5">
         <v>8408</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="5">
         <v>7112</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="5">
         <v>6448</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="5">
         <v>6201</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="5">
         <v>5858</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="5">
         <v>6194</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="5">
         <v>6412</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="5">
         <v>4730</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="5">
         <v>5275</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="5">
         <v>7653</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <v>141</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="5">
         <v>193</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="5">
         <v>155</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="5">
         <v>227</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="5">
         <v>309</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="5">
         <v>334</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="5">
         <v>357</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="5">
         <v>337</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="5">
         <v>245</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="5">
         <v>206</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="5">
         <v>175</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="5">
         <v>203</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="5">
         <v>181</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="5">
         <v>214</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="5">
         <v>203</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="5">
         <v>118</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="5">
         <v>152</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="5">
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <v>209</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="5">
         <v>279</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="5">
         <v>287</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="5">
         <v>330</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="5">
         <v>493</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="5">
         <v>477</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="5">
         <v>469</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="5">
         <v>434</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="5">
         <v>431</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="5">
         <v>397</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="5">
         <v>390</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="5">
         <v>400</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="5">
         <v>335</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="5">
         <v>310</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="5">
         <v>350</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="5">
         <v>233</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="5">
         <v>164</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="5">
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <v>1630</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="5">
         <v>2002</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="5">
         <v>2059</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="5">
         <v>2727</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="5">
         <v>3457</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="5">
         <v>3794</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="5">
         <v>4832</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="5">
         <v>4911</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="5">
         <v>4980</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="5">
         <v>4261</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="5">
         <v>3708</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="5">
         <v>3380</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="5">
         <v>3257</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="5">
         <v>3234</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="5">
         <v>3575</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="5">
         <v>2606</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="5">
         <v>2886</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="5">
         <v>3621</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <v>2444</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="5">
         <v>2728</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="5">
         <v>2669</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="5">
         <v>3477</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="5">
         <v>4199</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="5">
         <v>4437</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="5">
         <v>5244</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="5">
         <v>5082</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="5">
         <v>4807</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="5">
         <v>4332</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="5">
         <v>4167</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="5">
         <v>4041</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="5">
         <v>3749</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="5">
         <v>3968</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="5">
         <v>4169</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="5">
         <v>3498</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="5">
         <v>4007</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="5">
         <v>5456</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <v>1505</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="5">
         <v>1755</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="5">
         <v>1915</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="5">
         <v>2345</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="5">
         <v>2977</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="5">
         <v>3129</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="5">
         <v>3569</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="5">
         <v>3458</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="5">
         <v>3403</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="5">
         <v>2996</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="5">
         <v>2566</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="5">
         <v>2729</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="5">
         <v>2618</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="5">
         <v>2754</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="5">
         <v>2984</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="5">
         <v>2562</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T22" s="5">
         <v>2884</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="5">
         <v>3970</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
         <v>298</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="5">
         <v>340</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="5">
         <v>361</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="5">
         <v>477</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="5">
         <v>555</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="5">
         <v>618</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="5">
         <v>640</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="5">
         <v>581</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="5">
         <v>668</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="5">
         <v>557</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="5">
         <v>480</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="5">
         <v>547</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="5">
         <v>571</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="5">
         <v>652</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="5">
         <v>678</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="5">
         <v>664</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T23" s="5">
         <v>829</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="5">
         <v>1123</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <v>1</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="5">
         <v>0</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="5">
         <v>2</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="5">
         <v>3</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="5">
         <v>2</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="5">
         <v>6</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="5">
         <v>7</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="5">
         <v>9</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="5">
         <v>1</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="5">
         <v>5</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="5">
         <v>2</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="5">
         <v>3</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="5">
         <v>4</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="5">
         <v>3</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="5">
         <v>7</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="5">
         <v>2</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="5">
         <v>5</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <v>6228</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="5">
         <v>7297</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="5">
         <v>7448</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="5">
         <v>9586</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="5">
         <v>11992</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="5">
         <v>12795</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="5">
         <v>15118</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="5">
         <v>14812</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="5">
         <v>14535</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="5">
         <v>12754</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="5">
         <v>11488</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="5">
         <v>11303</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="5">
         <v>10715</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="5">
         <v>11135</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="5">
         <v>11966</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="5">
         <v>9683</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25" s="5">
         <v>10927</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="5">
         <v>14717</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <v>9</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="5">
         <v>12</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="5">
         <v>2</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="5">
         <v>9</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="5">
         <v>13</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="5">
         <v>20</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="5">
         <v>45</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="5">
         <v>35</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="5">
         <v>23</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="5">
         <v>17</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="5">
         <v>3</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="5">
         <v>8</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="5">
         <v>4</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="5">
         <v>4</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="5">
         <v>3</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="5">
         <v>0</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26" s="5">
         <v>0</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="5">
         <v>87</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="5">
         <v>93</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="5">
         <v>52</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="5">
         <v>70</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="5">
         <v>97</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="5">
         <v>130</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="5">
         <v>167</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="5">
         <v>183</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="5">
         <v>140</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="5">
         <v>123</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="5">
         <v>122</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="5">
         <v>117</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="5">
         <v>119</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="5">
         <v>105</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="5">
         <v>130</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="5">
         <v>62</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T27" s="5">
         <v>43</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="5">
         <v>501</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="5">
         <v>608</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="5">
         <v>443</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="5">
         <v>635</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="5">
         <v>792</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="5">
         <v>864</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="5">
         <v>740</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="5">
         <v>775</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="5">
         <v>731</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="5">
         <v>690</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="5">
         <v>565</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="5">
         <v>582</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="5">
         <v>805</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="5">
         <v>855</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="5">
         <v>937</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="5">
         <v>743</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T28" s="5">
         <v>712</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U28" s="5">
         <v>551</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <v>376</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="5">
         <v>453</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="5">
         <v>346</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="5">
         <v>476</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="5">
         <v>626</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="5">
         <v>685</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="5">
         <v>715</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="5">
         <v>658</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="5">
         <v>626</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="5">
         <v>536</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="5">
         <v>466</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="5">
         <v>543</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="5">
         <v>794</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="5">
         <v>753</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="5">
         <v>797</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="5">
         <v>725</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T29" s="5">
         <v>757</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29" s="5">
         <v>592</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="5">
         <v>179</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="5">
         <v>184</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="5">
         <v>147</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="5">
         <v>222</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="5">
         <v>297</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="5">
         <v>327</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="5">
         <v>336</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="5">
         <v>295</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="5">
         <v>278</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="5">
         <v>289</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="5">
         <v>267</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="5">
         <v>241</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="5">
         <v>411</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="5">
         <v>340</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="5">
         <v>357</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="5">
         <v>332</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30" s="5">
         <v>363</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30" s="5">
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="5">
         <v>14</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="5">
         <v>15</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="5">
         <v>10</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="5">
         <v>27</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="5">
         <v>40</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="5">
         <v>42</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="5">
         <v>39</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="5">
         <v>37</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="5">
         <v>37</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="5">
         <v>21</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="5">
         <v>23</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="5">
         <v>32</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="5">
         <v>66</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="5">
         <v>53</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="5">
         <v>31</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="5">
         <v>37</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T31" s="5">
         <v>35</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U31" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="5">
         <v>1</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="5">
         <v>0</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="5">
         <v>0</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="5">
         <v>0</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="5">
         <v>1</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="5">
         <v>0</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="5">
         <v>0</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="5">
         <v>1</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="5">
         <v>0</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="5">
         <v>0</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="5">
         <v>0</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="5">
         <v>0</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="5">
         <v>0</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="5">
         <v>0</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="5">
         <v>0</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="5">
         <v>0</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T32" s="5">
         <v>1</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="5">
         <v>1167</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="5">
         <v>1365</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="5">
         <v>1000</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="5">
         <v>1439</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="5">
         <v>1866</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="5">
         <v>2068</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="5">
         <v>2042</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="5">
         <v>1984</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="5">
         <v>1835</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="5">
         <v>1676</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33" s="5">
         <v>1446</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="5">
         <v>1523</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="5">
         <v>2199</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="5">
         <v>2110</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33" s="5">
         <v>2255</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S33" s="5">
         <v>1899</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T33" s="5">
         <v>1911</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U33" s="5">
         <v>1478</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="5">
         <v>34</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="5">
         <v>33</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="5">
         <v>12</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="5">
         <v>19</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="5">
         <v>21</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="5">
         <v>31</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="5">
         <v>35</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="5">
         <v>42</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="5">
         <v>54</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="5">
         <v>19</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="5">
         <v>7</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="5">
         <v>13</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="5">
         <v>14</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="5">
         <v>5</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34" s="5">
         <v>6</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34" s="5">
         <v>10</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T34" s="5">
         <v>1</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U34" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="5">
         <v>472</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="5">
         <v>624</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="5">
         <v>427</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="5">
         <v>371</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="5">
         <v>414</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="5">
         <v>491</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="5">
         <v>525</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="5">
         <v>385</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="5">
         <v>360</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="5">
         <v>392</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="5">
         <v>336</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="5">
         <v>403</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="5">
         <v>271</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="5">
         <v>261</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R35" s="5">
         <v>302</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S35" s="5">
         <v>188</v>
       </c>
-      <c r="T35" s="1">
+      <c r="T35" s="5">
         <v>102</v>
       </c>
-      <c r="U35" s="1">
+      <c r="U35" s="5">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="5">
         <v>3638</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="5">
         <v>4404</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="5">
         <v>2992</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="5">
         <v>4011</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="5">
         <v>4452</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="5">
         <v>4860</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="5">
         <v>3108</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="5">
         <v>3928</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="5">
         <v>3445</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="5">
         <v>3446</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36" s="5">
         <v>2475</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="5">
         <v>2218</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="5">
         <v>2794</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="5">
         <v>3180</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36" s="5">
         <v>3087</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36" s="5">
         <v>2063</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T36" s="5">
         <v>2335</v>
       </c>
-      <c r="U36" s="1">
+      <c r="U36" s="5">
         <v>2103</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <v>2883</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="5">
         <v>3454</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="5">
         <v>2256</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="5">
         <v>3068</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="5">
         <v>3668</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="5">
         <v>3466</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="5">
         <v>2550</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="5">
         <v>2950</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="5">
         <v>2612</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="5">
         <v>2666</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="5">
         <v>2147</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="5">
         <v>2013</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="5">
         <v>2522</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="5">
         <v>2955</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R37" s="5">
         <v>3058</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S37" s="5">
         <v>2386</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T37" s="5">
         <v>2715</v>
       </c>
-      <c r="U37" s="1">
+      <c r="U37" s="5">
         <v>2643</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="5">
         <v>1179</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="5">
         <v>1671</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="5">
         <v>981</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="5">
         <v>1527</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="5">
         <v>1793</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="5">
         <v>1735</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="5">
         <v>1283</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="5">
         <v>1643</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="5">
         <v>1454</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="5">
         <v>1331</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="5">
         <v>1178</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="5">
         <v>997</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="5">
         <v>1301</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="5">
         <v>1519</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R38" s="5">
         <v>1353</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S38" s="5">
         <v>1175</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T38" s="5">
         <v>1405</v>
       </c>
-      <c r="U38" s="1">
+      <c r="U38" s="5">
         <v>1143</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="5">
         <v>61</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="5">
         <v>100</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="5">
         <v>44</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="5">
         <v>112</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="5">
         <v>161</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="5">
         <v>133</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="5">
         <v>136</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="5">
         <v>111</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="5">
         <v>128</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="5">
         <v>152</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="5">
         <v>130</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="5">
         <v>102</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="5">
         <v>123</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="5">
         <v>126</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R39" s="5">
         <v>136</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S39" s="5">
         <v>120</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T39" s="5">
         <v>155</v>
       </c>
-      <c r="U39" s="1">
+      <c r="U39" s="5">
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="5">
         <v>2</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="5">
         <v>1</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="5">
         <v>1</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="5">
         <v>0</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="5">
         <v>1</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="5">
         <v>1</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="5">
         <v>1</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="5">
         <v>1</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="5">
         <v>0</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="5">
         <v>1</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="5">
         <v>1</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="5">
         <v>0</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="5">
         <v>0</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="5">
         <v>2</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R40" s="5">
         <v>0</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S40" s="5">
         <v>1</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T40" s="5">
         <v>1</v>
       </c>
-      <c r="U40" s="1">
+      <c r="U40" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="5">
         <v>8269</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="5">
         <v>10287</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="5">
         <v>6713</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="5">
         <v>9108</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="5">
         <v>10510</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="5">
         <v>10717</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="5">
         <v>7638</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="5">
         <v>9060</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="5">
         <v>8053</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="5">
         <v>8007</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="5">
         <v>6274</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="5">
         <v>5746</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="5">
         <v>7025</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="5">
         <v>8048</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="5">
         <v>7942</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S41" s="5">
         <v>5943</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T41" s="5">
         <v>6714</v>
       </c>
-      <c r="U41" s="1">
+      <c r="U41" s="5">
         <v>6218</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="5">
         <v>43</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="5">
         <v>45</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="5">
         <v>14</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="5">
         <v>28</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="5">
         <v>34</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="5">
         <v>51</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="5">
         <v>80</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="5">
         <v>77</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="5">
         <v>77</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="5">
         <v>36</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="5">
         <v>10</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="5">
         <v>21</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="5">
         <v>18</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="5">
         <v>9</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R42" s="5">
         <v>9</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S42" s="5">
         <v>10</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T42" s="5">
         <v>1</v>
       </c>
-      <c r="U42" s="1">
+      <c r="U42" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="5">
         <v>559</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="5">
         <v>717</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="5">
         <v>479</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="5">
         <v>441</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="5">
         <v>511</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="5">
         <v>621</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="5">
         <v>692</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="5">
         <v>568</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="5">
         <v>500</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="5">
         <v>515</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="5">
         <v>458</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="5">
         <v>520</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="5">
         <v>390</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43" s="5">
         <v>366</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R43" s="5">
         <v>432</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S43" s="5">
         <v>250</v>
       </c>
-      <c r="T43" s="1">
+      <c r="T43" s="5">
         <v>145</v>
       </c>
-      <c r="U43" s="1">
+      <c r="U43" s="5">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="5">
         <v>4139</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="5">
         <v>5012</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="5">
         <v>3435</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="5">
         <v>4646</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="5">
         <v>5244</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="5">
         <v>5724</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="5">
         <v>3848</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="5">
         <v>4703</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="5">
         <v>4176</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="5">
         <v>4136</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="5">
         <v>3040</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="5">
         <v>2800</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="5">
         <v>3599</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="5">
         <v>4035</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R44" s="5">
         <v>4024</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S44" s="5">
         <v>2806</v>
       </c>
-      <c r="T44" s="1">
+      <c r="T44" s="5">
         <v>3047</v>
       </c>
-      <c r="U44" s="1">
+      <c r="U44" s="5">
         <v>2654</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="5">
         <v>3259</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="5">
         <v>3907</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="5">
         <v>2602</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="5">
         <v>3544</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="5">
         <v>4294</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="5">
         <v>4151</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="5">
         <v>3265</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="5">
         <v>3608</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="5">
         <v>3238</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="5">
         <v>3202</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="5">
         <v>2613</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="5">
         <v>2556</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="5">
         <v>3316</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="5">
         <v>3708</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="5">
         <v>3855</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S45" s="5">
         <v>3111</v>
       </c>
-      <c r="T45" s="1">
+      <c r="T45" s="5">
         <v>3472</v>
       </c>
-      <c r="U45" s="1">
+      <c r="U45" s="5">
         <v>3235</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="5">
         <v>1358</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="5">
         <v>1855</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="5">
         <v>1128</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="5">
         <v>1749</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="5">
         <v>2090</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="5">
         <v>2062</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="5">
         <v>1619</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="5">
         <v>1938</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="5">
         <v>1732</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="5">
         <v>1620</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="5">
         <v>1445</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="5">
         <v>1238</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="5">
         <v>1712</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="5">
         <v>1859</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R46" s="5">
         <v>1710</v>
       </c>
-      <c r="S46" s="1">
+      <c r="S46" s="5">
         <v>1507</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T46" s="5">
         <v>1768</v>
       </c>
-      <c r="U46" s="1">
+      <c r="U46" s="5">
         <v>1396</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="5">
         <v>75</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="5">
         <v>115</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="5">
         <v>54</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="5">
         <v>139</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="5">
         <v>201</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="5">
         <v>175</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="5">
         <v>175</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="5">
         <v>148</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="5">
         <v>165</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="5">
         <v>173</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="5">
         <v>153</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="5">
         <v>134</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="5">
         <v>189</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="5">
         <v>179</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47" s="5">
         <v>167</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S47" s="5">
         <v>157</v>
       </c>
-      <c r="T47" s="1">
+      <c r="T47" s="5">
         <v>190</v>
       </c>
-      <c r="U47" s="1">
+      <c r="U47" s="5">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="5">
         <v>3</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="5">
         <v>1</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="5">
         <v>1</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="5">
         <v>0</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="5">
         <v>2</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="5">
         <v>1</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="5">
         <v>1</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="5">
         <v>2</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="5">
         <v>0</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="5">
         <v>1</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48" s="5">
         <v>1</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="5">
         <v>0</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="5">
         <v>0</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48" s="5">
         <v>2</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R48" s="5">
         <v>0</v>
       </c>
-      <c r="S48" s="1">
+      <c r="S48" s="5">
         <v>1</v>
       </c>
-      <c r="T48" s="1">
+      <c r="T48" s="5">
         <v>2</v>
       </c>
-      <c r="U48" s="1">
+      <c r="U48" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>15</v>
       </c>
@@ -4161,58 +4161,58 @@
       <c r="C49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="5">
         <v>9436</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="5">
         <v>11652</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="5">
         <v>7713</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="5">
         <v>10547</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="5">
         <v>12376</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="5">
         <v>12785</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="5">
         <v>9680</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="5">
         <v>11044</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="5">
         <v>9888</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="5">
         <v>9683</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N49" s="5">
         <v>7720</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="5">
         <v>7269</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="5">
         <v>9224</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49" s="5">
         <v>10158</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R49" s="5">
         <v>10197</v>
       </c>
-      <c r="S49" s="1">
+      <c r="S49" s="5">
         <v>7842</v>
       </c>
-      <c r="T49" s="1">
+      <c r="T49" s="5">
         <v>8625</v>
       </c>
-      <c r="U49" s="1">
+      <c r="U49" s="5">
         <v>7696</v>
       </c>
     </row>
